--- a/2016/HerbSurvey/Herbacous Sample Datasheet2017.xlsx
+++ b/2016/HerbSurvey/Herbacous Sample Datasheet2017.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2016/HerbSurvey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD33E16-C229-8947-A23F-F9EB18C65789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27160" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PLOT:</t>
   </si>
@@ -75,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,17 +117,35 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -193,6 +217,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,24 +317,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -357,6 +417,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -681,122 +749,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="62" zoomScalePageLayoutView="62" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="34" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="34" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="34" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" ht="34" customHeight="1">
+    <row r="3" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -812,23 +880,23 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="34" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="34" customHeight="1">
+    <row r="6" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -844,23 +912,23 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="34" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="34" customHeight="1">
+    <row r="8" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -876,23 +944,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="34" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="34" customHeight="1">
+    <row r="10" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -908,23 +976,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="34" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="34" customHeight="1">
+    <row r="12" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -940,23 +1008,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="34" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="34" customHeight="1">
+    <row r="14" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -972,23 +1040,23 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="34" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="34" customHeight="1">
+    <row r="16" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1004,23 +1072,23 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="34" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" ht="34" customHeight="1">
+    <row r="18" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1036,23 +1104,23 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="34" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" ht="34" customHeight="1">
+    <row r="20" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1068,23 +1136,23 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="34" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="34" customHeight="1">
+    <row r="22" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1100,23 +1168,23 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="34" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="34" customHeight="1">
+    <row r="24" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1132,23 +1200,23 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="34" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="34" customHeight="1">
+    <row r="26" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1164,23 +1232,23 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="34" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="34" customHeight="1">
+    <row r="28" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1196,507 +1264,495 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="34" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="34" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="34" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" ht="34" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="34" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" ht="34" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="34" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" ht="34" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="34" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" ht="34" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="34" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="34" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" ht="34" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" ht="34" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" ht="34" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" ht="34" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" ht="34" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" ht="34" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="34" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" ht="34" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" ht="34" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" ht="34" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" ht="34" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" ht="34" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14" ht="34" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" ht="34" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="1:14" ht="34" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" ht="34" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="1:14" ht="34" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" ht="34" customHeight="1"/>
-    <row r="60" spans="1:14" ht="23" customHeight="1"/>
-    <row r="61" spans="1:14" ht="23" customHeight="1"/>
-    <row r="62" spans="1:14" ht="23" customHeight="1"/>
-    <row r="63" spans="1:14" ht="23" customHeight="1"/>
+    <row r="30" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="64" fitToHeight="2" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
+  <pageMargins left="0.75" right="0.69791666666666663" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="38" fitToHeight="2" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" copies="59"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
